--- a/Finflux Automation Excels/Client/5048-CompondingPenalityCharge-MoraoriumOnPrinciple2-Writeoff.xlsx
+++ b/Finflux Automation Excels/Client/5048-CompondingPenalityCharge-MoraoriumOnPrinciple2-Writeoff.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="1" r:id="rId1"/>
@@ -956,7 +956,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1016,7 @@
         <v>24.04</v>
       </c>
       <c r="F3" s="14">
-        <v>0</v>
+        <v>4.2699999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,7 +1391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -1633,13 +1633,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="4" width="9.140625" style="18"/>
+    <col min="5" max="5" width="9.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
